--- a/Bases/TRM.xlsx
+++ b/Bases/TRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Dropbox/Uexternado/Maestria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11C6B8C-266C-7D47-9AAE-31572EAF3611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A37E931-CC2D-5946-AEA0-9AEE1CB98839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9F9DCAF3-2B82-6E47-AD02-83921261C23A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{9F9DCAF3-2B82-6E47-AD02-83921261C23A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Fecha</t>
   </si>
@@ -51,7 +51,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$$]\ #,##0.00;\-[$$]\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +63,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -149,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -466,7 +473,7 @@
   <dimension ref="A1:B1193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B777"/>
+      <selection activeCell="A2" sqref="A2:B534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,4267 +487,4267 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43468</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3250.01</v>
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43469</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3241.2</v>
+      <c r="A3" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3368.87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43470</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3208.56</v>
+      <c r="A4" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3355.44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43474</v>
+        <v>43868</v>
       </c>
       <c r="B5" s="2">
-        <v>3164.75</v>
+        <v>3378.43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>43475</v>
+        <v>43871</v>
       </c>
       <c r="B6" s="4">
-        <v>3128.07</v>
+        <v>3408.35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43476</v>
+        <v>43872</v>
       </c>
       <c r="B7" s="2">
-        <v>3136.49</v>
+        <v>3440.96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>43477</v>
+        <v>43873</v>
       </c>
       <c r="B8" s="4">
-        <v>3151.49</v>
+        <v>3432.89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43480</v>
+        <v>43874</v>
       </c>
       <c r="B9" s="2">
-        <v>3143.22</v>
+        <v>3394.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>43481</v>
+        <v>43875</v>
       </c>
       <c r="B10" s="4">
-        <v>3137.66</v>
+        <v>3385.11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43482</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3124.96</v>
+      <c r="A11" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3378.29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>43483</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3140.19</v>
+      <c r="A12" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3410.24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43484</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3120.56</v>
+      <c r="A13" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3400.98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43488</v>
+        <v>43882</v>
       </c>
       <c r="B14" s="2">
-        <v>3136.59</v>
+        <v>3403.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>43489</v>
+        <v>43885</v>
       </c>
       <c r="B15" s="4">
-        <v>3146.14</v>
+        <v>3398.05</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43490</v>
+        <v>43886</v>
       </c>
       <c r="B16" s="2">
-        <v>3160.52</v>
+        <v>3431.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>43491</v>
+        <v>43887</v>
       </c>
       <c r="B17" s="4">
-        <v>3150.58</v>
+        <v>3425.22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43494</v>
+        <v>43888</v>
       </c>
       <c r="B18" s="2">
-        <v>3167.86</v>
+        <v>3441.88</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>43495</v>
+        <v>43889</v>
       </c>
       <c r="B19" s="4">
-        <v>3157.52</v>
+        <v>3507.11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43496</v>
+        <v>43892</v>
       </c>
       <c r="B20" s="2">
-        <v>3163.46</v>
+        <v>3539.86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>43497</v>
+        <v>43893</v>
       </c>
       <c r="B21" s="4">
-        <v>3115.7</v>
+        <v>3512.17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43498</v>
+        <v>43894</v>
       </c>
       <c r="B22" s="2">
-        <v>3102.61</v>
+        <v>3455.56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>43501</v>
+        <v>43895</v>
       </c>
       <c r="B23" s="4">
-        <v>3089.4</v>
+        <v>3458.45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43502</v>
+        <v>43896</v>
       </c>
       <c r="B24" s="2">
-        <v>3094.05</v>
+        <v>3522.41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>43503</v>
+        <v>43899</v>
       </c>
       <c r="B25" s="4">
-        <v>3108.54</v>
+        <v>3584.58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43504</v>
+        <v>43900</v>
       </c>
       <c r="B26" s="2">
-        <v>3110.46</v>
+        <v>3803.6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>43505</v>
+        <v>43901</v>
       </c>
       <c r="B27" s="4">
-        <v>3115.94</v>
+        <v>3780.39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43508</v>
+        <v>43902</v>
       </c>
       <c r="B28" s="2">
-        <v>3132.61</v>
+        <v>3835.15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>43509</v>
+        <v>43903</v>
       </c>
       <c r="B29" s="4">
-        <v>3131.1</v>
+        <v>4034.66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43510</v>
+        <v>43906</v>
       </c>
       <c r="B30" s="2">
-        <v>3135.56</v>
+        <v>3941.92</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>43511</v>
+        <v>43907</v>
       </c>
       <c r="B31" s="4">
-        <v>3155.27</v>
+        <v>4099.93</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43512</v>
+        <v>43908</v>
       </c>
       <c r="B32" s="2">
-        <v>3141.4</v>
+        <v>4044.55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>43516</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3118.36</v>
+      <c r="A33" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4128.38</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>43517</v>
-      </c>
-      <c r="B34" s="4">
-        <v>3112.18</v>
+      <c r="A34" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4153.91</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43518</v>
+        <v>43914</v>
       </c>
       <c r="B35" s="2">
-        <v>3119.42</v>
+        <v>4079.96</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>43519</v>
+        <v>43915</v>
       </c>
       <c r="B36" s="4">
-        <v>3110.29</v>
+        <v>4104.8999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43522</v>
+        <v>43916</v>
       </c>
       <c r="B37" s="2">
-        <v>3101.41</v>
+        <v>4086.34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>43523</v>
+        <v>43917</v>
       </c>
       <c r="B38" s="4">
-        <v>3095.29</v>
+        <v>3995.83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43524</v>
+        <v>43920</v>
       </c>
       <c r="B39" s="2">
-        <v>3072.01</v>
+        <v>4042.8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>43525</v>
+        <v>43921</v>
       </c>
       <c r="B40" s="4">
-        <v>3077.35</v>
+        <v>4064.81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43526</v>
+        <v>43922</v>
       </c>
       <c r="B41" s="2">
-        <v>3091.49</v>
+        <v>4054.54</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>43529</v>
+        <v>43923</v>
       </c>
       <c r="B42" s="4">
-        <v>3093.79</v>
+        <v>4081.06</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43530</v>
+        <v>43924</v>
       </c>
       <c r="B43" s="2">
-        <v>3099.12</v>
+        <v>4065.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>43531</v>
+        <v>43927</v>
       </c>
       <c r="B44" s="4">
-        <v>3106.16</v>
+        <v>4008.78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43532</v>
+        <v>43928</v>
       </c>
       <c r="B45" s="2">
-        <v>3120.04</v>
+        <v>3978.38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>43533</v>
+        <v>43929</v>
       </c>
       <c r="B46" s="4">
-        <v>3162.4</v>
+        <v>3910.15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43536</v>
+        <v>43934</v>
       </c>
       <c r="B47" s="2">
-        <v>3168.35</v>
+        <v>3886.79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>43537</v>
+        <v>43935</v>
       </c>
       <c r="B48" s="4">
-        <v>3153.2</v>
+        <v>3870.31</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43538</v>
+        <v>43936</v>
       </c>
       <c r="B49" s="2">
-        <v>3145.53</v>
+        <v>3858.21</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>43539</v>
+        <v>43937</v>
       </c>
       <c r="B50" s="4">
-        <v>3144.42</v>
+        <v>3920.83</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43540</v>
+        <v>43938</v>
       </c>
       <c r="B51" s="2">
-        <v>3123.28</v>
+        <v>3942.92</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>43543</v>
+        <v>43941</v>
       </c>
       <c r="B52" s="4">
-        <v>3102.25</v>
+        <v>3973.06</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43544</v>
+        <v>43942</v>
       </c>
       <c r="B53" s="2">
-        <v>3095.39</v>
+        <v>3967.76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>43545</v>
+        <v>43943</v>
       </c>
       <c r="B54" s="4">
-        <v>3092.39</v>
+        <v>4045.01</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43546</v>
+        <v>43944</v>
       </c>
       <c r="B55" s="2">
-        <v>3082.45</v>
+        <v>4037.95</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>43547</v>
+        <v>43945</v>
       </c>
       <c r="B56" s="4">
-        <v>3126.19</v>
+        <v>4020.94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>43551</v>
-      </c>
-      <c r="B57" s="4">
-        <v>3145.55</v>
+      <c r="A57" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4039.87</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>43552</v>
-      </c>
-      <c r="B58" s="2">
-        <v>3186.43</v>
+      <c r="A58" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4039.83</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>43553</v>
-      </c>
-      <c r="B59" s="4">
-        <v>3190.94</v>
+      <c r="A59" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4046.04</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>43554</v>
-      </c>
-      <c r="B60" s="2">
-        <v>3174.79</v>
+      <c r="A60" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3983.29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>43557</v>
+        <v>43955</v>
       </c>
       <c r="B61" s="4">
-        <v>3146.81</v>
+        <v>3932.72</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>43558</v>
+        <v>43956</v>
       </c>
       <c r="B62" s="2">
-        <v>3143.36</v>
+        <v>3990.1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>43559</v>
+        <v>43957</v>
       </c>
       <c r="B63" s="4">
-        <v>3128.47</v>
+        <v>3926.07</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>43560</v>
+        <v>43958</v>
       </c>
       <c r="B64" s="2">
-        <v>3132.78</v>
+        <v>3961.66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>43561</v>
+        <v>43959</v>
       </c>
       <c r="B65" s="4">
-        <v>3126.2</v>
+        <v>3924.54</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43564</v>
+        <v>43962</v>
       </c>
       <c r="B66" s="2">
-        <v>3115.22</v>
+        <v>3882.27</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>43565</v>
+        <v>43963</v>
       </c>
       <c r="B67" s="4">
-        <v>3105.2</v>
+        <v>3901.34</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43566</v>
+        <v>43964</v>
       </c>
       <c r="B68" s="2">
-        <v>3095.66</v>
+        <v>3880.48</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>43567</v>
+        <v>43965</v>
       </c>
       <c r="B69" s="4">
-        <v>3113.91</v>
+        <v>3901.3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43568</v>
+        <v>43966</v>
       </c>
       <c r="B70" s="2">
-        <v>3109.32</v>
+        <v>3947.79</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>43571</v>
+        <v>43969</v>
       </c>
       <c r="B71" s="4">
-        <v>3136.69</v>
+        <v>3926.06</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43572</v>
+        <v>43970</v>
       </c>
       <c r="B72" s="2">
-        <v>3160.87</v>
+        <v>3851.07</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>43573</v>
+        <v>43971</v>
       </c>
       <c r="B73" s="4">
-        <v>3160.48</v>
+        <v>3824.3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43578</v>
+        <v>43972</v>
       </c>
       <c r="B74" s="2">
-        <v>3149.99</v>
+        <v>3804.12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>43579</v>
+        <v>43973</v>
       </c>
       <c r="B75" s="4">
-        <v>3177.94</v>
+        <v>3774.25</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>43580</v>
-      </c>
-      <c r="B76" s="2">
-        <v>3213.23</v>
+      <c r="A76" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B76" s="4">
+        <v>3782.66</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>43581</v>
-      </c>
-      <c r="B77" s="4">
-        <v>3237.98</v>
+      <c r="A77" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3725.56</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>43582</v>
-      </c>
-      <c r="B78" s="2">
-        <v>3227.79</v>
+      <c r="A78" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B78" s="4">
+        <v>3743.79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>43585</v>
-      </c>
-      <c r="B79" s="4">
-        <v>3247.72</v>
+      <c r="A79" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3723.42</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>43586</v>
-      </c>
-      <c r="B80" s="2">
-        <v>3233.97</v>
+      <c r="A80" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B80" s="4">
+        <v>3718.82</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43588</v>
+        <v>43984</v>
       </c>
       <c r="B81" s="2">
-        <v>3262.17</v>
+        <v>3716.35</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>43589</v>
+        <v>43985</v>
       </c>
       <c r="B82" s="4">
-        <v>3240.44</v>
+        <v>3651.42</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43592</v>
+        <v>43986</v>
       </c>
       <c r="B83" s="2">
-        <v>3254.03</v>
+        <v>3588.89</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>43593</v>
+        <v>43987</v>
       </c>
       <c r="B84" s="4">
-        <v>3288.81</v>
+        <v>3597.47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43594</v>
+        <v>43990</v>
       </c>
       <c r="B85" s="2">
-        <v>3290.12</v>
+        <v>3565.06</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>43595</v>
+        <v>43991</v>
       </c>
       <c r="B86" s="4">
-        <v>3293.62</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43596</v>
+        <v>43992</v>
       </c>
       <c r="B87" s="2">
-        <v>3274.3</v>
+        <v>3643.02</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>43599</v>
+        <v>43993</v>
       </c>
       <c r="B88" s="4">
-        <v>3299.01</v>
+        <v>3674.81</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43600</v>
+        <v>43994</v>
       </c>
       <c r="B89" s="2">
-        <v>3285.14</v>
+        <v>3746.46</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>43601</v>
-      </c>
-      <c r="B90" s="4">
-        <v>3295.51</v>
+      <c r="A90" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B90" s="2">
+        <v>3758.15</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>43602</v>
-      </c>
-      <c r="B91" s="2">
-        <v>3290.27</v>
+      <c r="A91" s="3">
+        <v>43999</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3741.88</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>43603</v>
-      </c>
-      <c r="B92" s="4">
-        <v>3313.72</v>
+      <c r="A92" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3749.03</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>43606</v>
-      </c>
-      <c r="B93" s="2">
-        <v>3342.21</v>
+      <c r="A93" s="3">
+        <v>44001</v>
+      </c>
+      <c r="B93" s="4">
+        <v>3760.22</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>43607</v>
+        <v>44005</v>
       </c>
       <c r="B94" s="4">
-        <v>3344.45</v>
+        <v>3733.27</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43608</v>
+        <v>44006</v>
       </c>
       <c r="B95" s="2">
-        <v>3340.96</v>
+        <v>3706.06</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>43609</v>
+        <v>44007</v>
       </c>
       <c r="B96" s="4">
-        <v>3368.76</v>
+        <v>3722.27</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43610</v>
+        <v>44008</v>
       </c>
       <c r="B97" s="2">
-        <v>3358.84</v>
+        <v>3735.93</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>43614</v>
+        <v>44012</v>
       </c>
       <c r="B98" s="2">
-        <v>3362.48</v>
+        <v>3758.91</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>43615</v>
+        <v>44013</v>
       </c>
       <c r="B99" s="4">
-        <v>3375.29</v>
+        <v>3756.28</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>43616</v>
+        <v>44014</v>
       </c>
       <c r="B100" s="2">
-        <v>3357.82</v>
+        <v>3723.67</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>43617</v>
+        <v>44015</v>
       </c>
       <c r="B101" s="4">
-        <v>3377.16</v>
+        <v>3660.18</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>43621</v>
-      </c>
-      <c r="B102" s="4">
-        <v>3306.37</v>
+      <c r="A102" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3645.9</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>43622</v>
-      </c>
-      <c r="B103" s="2">
-        <v>3296.87</v>
+      <c r="A103" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B103" s="4">
+        <v>3633.32</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>43623</v>
-      </c>
-      <c r="B104" s="4">
-        <v>3288.69</v>
+      <c r="A104" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B104" s="2">
+        <v>3631.54</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>43624</v>
-      </c>
-      <c r="B105" s="2">
-        <v>3274.72</v>
+      <c r="A105" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B105" s="4">
+        <v>3625.61</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>43627</v>
-      </c>
-      <c r="B106" s="4">
-        <v>3257.06</v>
+      <c r="A106" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3633.42</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>43628</v>
-      </c>
-      <c r="B107" s="2">
-        <v>3249.56</v>
+      <c r="A107" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B107" s="4">
+        <v>3615.75</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>43629</v>
-      </c>
-      <c r="B108" s="4">
-        <v>3264.47</v>
+      <c r="A108" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3617.22</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>43630</v>
-      </c>
-      <c r="B109" s="2">
-        <v>3266.72</v>
+      <c r="A109" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B109" s="4">
+        <v>3638.22</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>43631</v>
-      </c>
-      <c r="B110" s="4">
-        <v>3270.7</v>
+      <c r="A110" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3611.61</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>43634</v>
-      </c>
-      <c r="B111" s="2">
-        <v>3286.63</v>
+      <c r="A111" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B111" s="4">
+        <v>3627.86</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>43635</v>
+        <v>44033</v>
       </c>
       <c r="B112" s="4">
-        <v>3264.98</v>
+        <v>3651.93</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>43636</v>
+        <v>44034</v>
       </c>
       <c r="B113" s="2">
-        <v>3248.91</v>
+        <v>3628.2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>43637</v>
+        <v>44035</v>
       </c>
       <c r="B114" s="4">
-        <v>3202.01</v>
+        <v>3627.28</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>43638</v>
+        <v>44036</v>
       </c>
       <c r="B115" s="2">
-        <v>3191.17</v>
+        <v>3660.15</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>43642</v>
-      </c>
-      <c r="B116" s="2">
-        <v>3187.15</v>
+      <c r="A116" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B116" s="4">
+        <v>3690.8</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>43643</v>
-      </c>
-      <c r="B117" s="4">
-        <v>3177.94</v>
+      <c r="A117" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3679.17</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>43644</v>
-      </c>
-      <c r="B118" s="2">
-        <v>3197.23</v>
+      <c r="A118" s="3">
+        <v>44041</v>
+      </c>
+      <c r="B118" s="4">
+        <v>3718.69</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
-        <v>43645</v>
-      </c>
-      <c r="B119" s="4">
-        <v>3205.67</v>
+      <c r="A119" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3716.89</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>43649</v>
+        <v>44043</v>
       </c>
       <c r="B120" s="4">
-        <v>3211.06</v>
+        <v>3739.49</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>43650</v>
+        <v>44046</v>
       </c>
       <c r="B121" s="2">
-        <v>3206.92</v>
+        <v>3733.08</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>43652</v>
-      </c>
-      <c r="B122" s="2">
-        <v>3217.18</v>
+      <c r="A122" s="3">
+        <v>44047</v>
+      </c>
+      <c r="B122" s="4">
+        <v>3768.39</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
-        <v>43655</v>
-      </c>
-      <c r="B123" s="4">
-        <v>3207.66</v>
+      <c r="A123" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3792.98</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>43656</v>
-      </c>
-      <c r="B124" s="2">
-        <v>3223.67</v>
+      <c r="A124" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B124" s="4">
+        <v>3775.95</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>43657</v>
+        <v>44053</v>
       </c>
       <c r="B125" s="4">
-        <v>3212.91</v>
+        <v>3769.67</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>43658</v>
+        <v>44054</v>
       </c>
       <c r="B126" s="2">
-        <v>3197.5</v>
+        <v>3770.22</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>43659</v>
+        <v>44055</v>
       </c>
       <c r="B127" s="4">
-        <v>3190.33</v>
+        <v>3749.3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>43662</v>
+        <v>44056</v>
       </c>
       <c r="B128" s="2">
-        <v>3190.66</v>
+        <v>3755.61</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>43663</v>
+        <v>44057</v>
       </c>
       <c r="B129" s="4">
-        <v>3199.72</v>
+        <v>3767.05</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>43664</v>
-      </c>
-      <c r="B130" s="2">
-        <v>3189.21</v>
+      <c r="A130" s="3">
+        <v>44061</v>
+      </c>
+      <c r="B130" s="4">
+        <v>3783.15</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
-        <v>43665</v>
-      </c>
-      <c r="B131" s="4">
-        <v>3183.01</v>
+      <c r="A131" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B131" s="2">
+        <v>3784.15</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>43666</v>
-      </c>
-      <c r="B132" s="2">
-        <v>3169.51</v>
+      <c r="A132" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B132" s="4">
+        <v>3766.73</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
-        <v>43669</v>
-      </c>
-      <c r="B133" s="4">
-        <v>3177.76</v>
+      <c r="A133" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B133" s="2">
+        <v>3792.13</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>43670</v>
-      </c>
-      <c r="B134" s="2">
-        <v>3188.01</v>
+      <c r="A134" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B134" s="4">
+        <v>3827.27</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
-        <v>43671</v>
-      </c>
-      <c r="B135" s="4">
-        <v>3194.67</v>
+      <c r="A135" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3843.69</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>43672</v>
-      </c>
-      <c r="B136" s="2">
-        <v>3213.09</v>
+      <c r="A136" s="3">
+        <v>44069</v>
+      </c>
+      <c r="B136" s="4">
+        <v>3867.32</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>43673</v>
-      </c>
-      <c r="B137" s="4">
-        <v>3233.26</v>
+      <c r="A137" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B137" s="2">
+        <v>3846.64</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>43676</v>
-      </c>
-      <c r="B138" s="2">
-        <v>3262.81</v>
+      <c r="A138" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B138" s="4">
+        <v>3820.17</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
-        <v>43677</v>
-      </c>
-      <c r="B139" s="4">
-        <v>3296.85</v>
+      <c r="A139" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3760.38</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>43678</v>
-      </c>
-      <c r="B140" s="2">
-        <v>3291.79</v>
+      <c r="A140" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B140" s="4">
+        <v>3745.41</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>43679</v>
-      </c>
-      <c r="B141" s="4">
-        <v>3329.23</v>
+      <c r="A141" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3683.28</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>43680</v>
-      </c>
-      <c r="B142" s="2">
-        <v>3365.78</v>
+      <c r="A142" s="3">
+        <v>44077</v>
+      </c>
+      <c r="B142" s="4">
+        <v>3653.7</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>43683</v>
-      </c>
-      <c r="B143" s="4">
-        <v>3459.47</v>
+      <c r="A143" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B143" s="2">
+        <v>3653.23</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>43684</v>
+        <v>44082</v>
       </c>
       <c r="B144" s="2">
-        <v>3431.28</v>
+        <v>3702.62</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>43686</v>
-      </c>
-      <c r="B145" s="2">
-        <v>3394.61</v>
+      <c r="A145" s="3">
+        <v>44083</v>
+      </c>
+      <c r="B145" s="4">
+        <v>3757.21</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
-        <v>43687</v>
-      </c>
-      <c r="B146" s="4">
-        <v>3382.71</v>
+      <c r="A146" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3717.25</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>43690</v>
-      </c>
-      <c r="B147" s="2">
-        <v>3436.26</v>
+      <c r="A147" s="3">
+        <v>44085</v>
+      </c>
+      <c r="B147" s="4">
+        <v>3700.28</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
-        <v>43691</v>
-      </c>
-      <c r="B148" s="4">
-        <v>3407.76</v>
+      <c r="A148" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3709</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>43692</v>
-      </c>
-      <c r="B149" s="2">
-        <v>3449.27</v>
+      <c r="A149" s="3">
+        <v>44089</v>
+      </c>
+      <c r="B149" s="4">
+        <v>3697</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
-        <v>43693</v>
-      </c>
-      <c r="B150" s="4">
-        <v>3447.76</v>
+      <c r="A150" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3683.49</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>43694</v>
-      </c>
-      <c r="B151" s="2">
-        <v>3441.4</v>
+      <c r="A151" s="3">
+        <v>44091</v>
+      </c>
+      <c r="B151" s="4">
+        <v>3703.86</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>43698</v>
+        <v>44092</v>
       </c>
       <c r="B152" s="2">
-        <v>3420.99</v>
+        <v>3714.65</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>43699</v>
+        <v>44095</v>
       </c>
       <c r="B153" s="4">
-        <v>3385.28</v>
+        <v>3725.37</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>43700</v>
+        <v>44096</v>
       </c>
       <c r="B154" s="2">
-        <v>3376.99</v>
+        <v>3790.54</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
-        <v>43701</v>
+        <v>44097</v>
       </c>
       <c r="B155" s="4">
-        <v>3399.95</v>
+        <v>3813.3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>43704</v>
+        <v>44098</v>
       </c>
       <c r="B156" s="2">
-        <v>3432.85</v>
+        <v>3863.6</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
-        <v>43705</v>
+        <v>44099</v>
       </c>
       <c r="B157" s="4">
-        <v>3457.89</v>
+        <v>3873.8</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>43706</v>
+        <v>44102</v>
       </c>
       <c r="B158" s="2">
-        <v>3477.53</v>
+        <v>3867.81</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
-        <v>43707</v>
+        <v>44103</v>
       </c>
       <c r="B159" s="4">
-        <v>3464.15</v>
+        <v>3859.9</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>43708</v>
+        <v>44104</v>
       </c>
       <c r="B160" s="2">
-        <v>3427.29</v>
+        <v>3878.94</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>43712</v>
-      </c>
-      <c r="B161" s="2">
-        <v>3438.61</v>
+      <c r="A161" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B161" s="4">
+        <v>3865.47</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
-        <v>43713</v>
-      </c>
-      <c r="B162" s="4">
-        <v>3401.04</v>
+      <c r="A162" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B162" s="2">
+        <v>3842.34</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>43714</v>
-      </c>
-      <c r="B163" s="2">
-        <v>3377.39</v>
+      <c r="A163" s="3">
+        <v>44109</v>
+      </c>
+      <c r="B163" s="4">
+        <v>3881.8</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
-        <v>43715</v>
-      </c>
-      <c r="B164" s="4">
-        <v>3361.7</v>
+      <c r="A164" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B164" s="2">
+        <v>3843.75</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>43718</v>
-      </c>
-      <c r="B165" s="2">
-        <v>3368.8</v>
+      <c r="A165" s="3">
+        <v>44111</v>
+      </c>
+      <c r="B165" s="4">
+        <v>3826.77</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
-        <v>43719</v>
-      </c>
-      <c r="B166" s="4">
-        <v>3373.75</v>
+      <c r="A166" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B166" s="2">
+        <v>3837.79</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>43720</v>
-      </c>
-      <c r="B167" s="2">
-        <v>3372.48</v>
+      <c r="A167" s="3">
+        <v>44113</v>
+      </c>
+      <c r="B167" s="4">
+        <v>3839.73</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>43721</v>
+        <v>44117</v>
       </c>
       <c r="B168" s="4">
-        <v>3359.2</v>
+        <v>3824.25</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>43722</v>
+        <v>44118</v>
       </c>
       <c r="B169" s="2">
-        <v>3356.15</v>
+        <v>3856.32</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>43725</v>
+        <v>44119</v>
       </c>
       <c r="B170" s="4">
-        <v>3364.43</v>
+        <v>3843.59</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>43726</v>
+        <v>44120</v>
       </c>
       <c r="B171" s="2">
-        <v>3380.92</v>
+        <v>3854.47</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>43727</v>
+        <v>44123</v>
       </c>
       <c r="B172" s="4">
-        <v>3377.79</v>
+        <v>3846.48</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>43728</v>
+        <v>44124</v>
       </c>
       <c r="B173" s="2">
-        <v>3377.72</v>
+        <v>3842.76</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>43729</v>
+        <v>44125</v>
       </c>
       <c r="B174" s="4">
-        <v>3402.32</v>
+        <v>3830.79</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>43732</v>
+        <v>44126</v>
       </c>
       <c r="B175" s="2">
-        <v>3437.78</v>
+        <v>3784.51</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>43733</v>
+        <v>44127</v>
       </c>
       <c r="B176" s="4">
-        <v>3438.66</v>
+        <v>3776.73</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>43734</v>
+        <v>44130</v>
       </c>
       <c r="B177" s="2">
-        <v>3451.02</v>
+        <v>3782.66</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
-        <v>43735</v>
+        <v>44131</v>
       </c>
       <c r="B178" s="4">
-        <v>3435.71</v>
+        <v>3812.82</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>43736</v>
+        <v>44132</v>
       </c>
       <c r="B179" s="2">
-        <v>3462.01</v>
+        <v>3810.23</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
-        <v>43739</v>
+        <v>44133</v>
       </c>
       <c r="B180" s="4">
-        <v>3477.45</v>
+        <v>3841.46</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>43740</v>
+        <v>44134</v>
       </c>
       <c r="B181" s="2">
-        <v>3491.29</v>
+        <v>3849.53</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="3">
-        <v>43741</v>
-      </c>
-      <c r="B182" s="4">
-        <v>3497.34</v>
+      <c r="A182" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B182" s="2">
+        <v>3858.56</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>43742</v>
-      </c>
-      <c r="B183" s="2">
-        <v>3467.6</v>
+      <c r="A183" s="3">
+        <v>44139</v>
+      </c>
+      <c r="B183" s="4">
+        <v>3823.45</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="3">
-        <v>43743</v>
-      </c>
-      <c r="B184" s="4">
-        <v>3430.28</v>
+      <c r="A184" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B184" s="2">
+        <v>3807.13</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>43746</v>
-      </c>
-      <c r="B185" s="2">
-        <v>3445.76</v>
+      <c r="A185" s="3">
+        <v>44141</v>
+      </c>
+      <c r="B185" s="4">
+        <v>3763.82</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="3">
-        <v>43747</v>
-      </c>
-      <c r="B186" s="4">
-        <v>3452.57</v>
+      <c r="A186" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B186" s="2">
+        <v>3738.19</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>43748</v>
-      </c>
-      <c r="B187" s="2">
-        <v>3454.56</v>
+      <c r="A187" s="3">
+        <v>44145</v>
+      </c>
+      <c r="B187" s="4">
+        <v>3646.15</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>43749</v>
+        <v>44147</v>
       </c>
       <c r="B188" s="4">
-        <v>3458.42</v>
+        <v>3650.5</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>43750</v>
+        <v>44148</v>
       </c>
       <c r="B189" s="2">
-        <v>3431.46</v>
+        <v>3646.22</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>43754</v>
+        <v>44152</v>
       </c>
       <c r="B190" s="2">
-        <v>3451.33</v>
+        <v>3639.95</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>43755</v>
+        <v>44153</v>
       </c>
       <c r="B191" s="4">
-        <v>3459.55</v>
+        <v>3635.19</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>43756</v>
+        <v>44154</v>
       </c>
       <c r="B192" s="2">
-        <v>3465.35</v>
+        <v>3647.73</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>43757</v>
+        <v>44155</v>
       </c>
       <c r="B193" s="4">
-        <v>3428.63</v>
+        <v>3647.1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>43760</v>
+        <v>44158</v>
       </c>
       <c r="B194" s="2">
-        <v>3442.78</v>
+        <v>3649.9</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>43761</v>
+        <v>44159</v>
       </c>
       <c r="B195" s="4">
-        <v>3430.3</v>
+        <v>3632.92</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>43762</v>
+        <v>44160</v>
       </c>
       <c r="B196" s="2">
-        <v>3409.29</v>
+        <v>3643.24</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="3">
-        <v>43763</v>
-      </c>
-      <c r="B197" s="4">
-        <v>3387.72</v>
+      <c r="A197" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B197" s="2">
+        <v>3620.39</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>43764</v>
-      </c>
-      <c r="B198" s="2">
-        <v>3395.25</v>
+      <c r="A198" s="3">
+        <v>44165</v>
+      </c>
+      <c r="B198" s="4">
+        <v>3611.44</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
-        <v>43767</v>
-      </c>
-      <c r="B199" s="4">
-        <v>3382.19</v>
+      <c r="A199" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B199" s="2">
+        <v>3591.84</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>43768</v>
-      </c>
-      <c r="B200" s="2">
-        <v>3380.9</v>
+      <c r="A200" s="3">
+        <v>44167</v>
+      </c>
+      <c r="B200" s="4">
+        <v>3558.57</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="3">
-        <v>43769</v>
-      </c>
-      <c r="B201" s="4">
-        <v>3389.94</v>
+      <c r="A201" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B201" s="2">
+        <v>3533.21</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>43770</v>
-      </c>
-      <c r="B202" s="2">
-        <v>3383.29</v>
+      <c r="A202" s="3">
+        <v>44169</v>
+      </c>
+      <c r="B202" s="4">
+        <v>3481.44</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="3">
-        <v>43771</v>
-      </c>
-      <c r="B203" s="4">
-        <v>3339.19</v>
+      <c r="A203" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B203" s="2">
+        <v>3467.49</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="3">
-        <v>43775</v>
-      </c>
-      <c r="B204" s="4">
-        <v>3318.47</v>
+      <c r="A204" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B204" s="2">
+        <v>3487.65</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>43776</v>
-      </c>
-      <c r="B205" s="2">
-        <v>3319.64</v>
+      <c r="A205" s="3">
+        <v>44175</v>
+      </c>
+      <c r="B205" s="4">
+        <v>3465.76</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="3">
-        <v>43777</v>
-      </c>
-      <c r="B206" s="4">
-        <v>3327.02</v>
+      <c r="A206" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B206" s="2">
+        <v>3448.89</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>43778</v>
-      </c>
-      <c r="B207" s="2">
-        <v>3341.01</v>
+      <c r="A207" s="3">
+        <v>44179</v>
+      </c>
+      <c r="B207" s="4">
+        <v>3433.45</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>43782</v>
+        <v>44180</v>
       </c>
       <c r="B208" s="2">
-        <v>3384.21</v>
+        <v>3426.97</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>43783</v>
+        <v>44181</v>
       </c>
       <c r="B209" s="4">
-        <v>3441.89</v>
+        <v>3422.44</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>43784</v>
+        <v>44182</v>
       </c>
       <c r="B210" s="2">
-        <v>3452.67</v>
+        <v>3416.21</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>43785</v>
+        <v>44183</v>
       </c>
       <c r="B211" s="4">
-        <v>3421.26</v>
+        <v>3410.82</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>43788</v>
+        <v>44186</v>
       </c>
       <c r="B212" s="2">
-        <v>3447.74</v>
+        <v>3420.26</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>43789</v>
+        <v>44187</v>
       </c>
       <c r="B213" s="4">
-        <v>3434.49</v>
+        <v>3442.41</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>43790</v>
+        <v>44188</v>
       </c>
       <c r="B214" s="2">
-        <v>3445.95</v>
+        <v>3444.9</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>43791</v>
+        <v>44189</v>
       </c>
       <c r="B215" s="4">
-        <v>3440.66</v>
+        <v>3482.51</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>43792</v>
-      </c>
-      <c r="B216" s="2">
-        <v>3410.77</v>
+      <c r="A216" s="3">
+        <v>44193</v>
+      </c>
+      <c r="B216" s="4">
+        <v>3493.77</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="3">
-        <v>43795</v>
-      </c>
-      <c r="B217" s="4">
-        <v>3433.94</v>
+      <c r="A217" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B217" s="2">
+        <v>3495.39</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>43796</v>
-      </c>
-      <c r="B218" s="2">
-        <v>3469.01</v>
+      <c r="A218" s="3">
+        <v>44195</v>
+      </c>
+      <c r="B218" s="4">
+        <v>3482.1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="3">
-        <v>43797</v>
-      </c>
-      <c r="B219" s="4">
-        <v>3502.92</v>
+      <c r="A219" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B219" s="2">
+        <v>3432.5</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>43799</v>
+        <v>44201</v>
       </c>
       <c r="B220" s="4">
-        <v>3522.48</v>
+        <v>3420.78</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>43802</v>
+        <v>44202</v>
       </c>
       <c r="B221" s="2">
-        <v>3508.39</v>
+        <v>3450.74</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>43803</v>
+        <v>44203</v>
       </c>
       <c r="B222" s="4">
-        <v>3506.67</v>
+        <v>3428.04</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>43804</v>
+        <v>44204</v>
       </c>
       <c r="B223" s="2">
-        <v>3478.57</v>
+        <v>3459.39</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="3">
-        <v>43805</v>
-      </c>
-      <c r="B224" s="4">
-        <v>3459.97</v>
+      <c r="A224" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B224" s="2">
+        <v>3478.11</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>43806</v>
-      </c>
-      <c r="B225" s="2">
-        <v>3430.31</v>
+      <c r="A225" s="3">
+        <v>44209</v>
+      </c>
+      <c r="B225" s="4">
+        <v>3487.65</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="3">
-        <v>43809</v>
-      </c>
-      <c r="B226" s="4">
-        <v>3418.48</v>
+      <c r="A226" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B226" s="2">
+        <v>3478.36</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
-        <v>43810</v>
-      </c>
-      <c r="B227" s="2">
-        <v>3418.61</v>
+      <c r="A227" s="3">
+        <v>44211</v>
+      </c>
+      <c r="B227" s="4">
+        <v>3469.76</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>43811</v>
+        <v>44215</v>
       </c>
       <c r="B228" s="4">
-        <v>3387.73</v>
+        <v>3466.8</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>43812</v>
+        <v>44216</v>
       </c>
       <c r="B229" s="2">
-        <v>3372.23</v>
+        <v>3482.03</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>43813</v>
+        <v>44217</v>
       </c>
       <c r="B230" s="4">
-        <v>3374.29</v>
+        <v>3476.19</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>43816</v>
+        <v>44218</v>
       </c>
       <c r="B231" s="2">
-        <v>3364.24</v>
+        <v>3477.48</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <v>43817</v>
+        <v>44221</v>
       </c>
       <c r="B232" s="4">
-        <v>3347.86</v>
+        <v>3525.25</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>43818</v>
+        <v>44222</v>
       </c>
       <c r="B233" s="2">
-        <v>3329.98</v>
+        <v>3582.41</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>43819</v>
+        <v>44223</v>
       </c>
       <c r="B234" s="4">
-        <v>3322.38</v>
+        <v>3591.48</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>43820</v>
+        <v>44224</v>
       </c>
       <c r="B235" s="2">
-        <v>3325.47</v>
+        <v>3636.91</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>43823</v>
+        <v>44225</v>
       </c>
       <c r="B236" s="4">
-        <v>3316.92</v>
+        <v>3585.44</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>43824</v>
+        <v>44228</v>
       </c>
       <c r="B237" s="2">
-        <v>3305.84</v>
+        <v>3559.46</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>43826</v>
-      </c>
-      <c r="B238" s="2">
-        <v>3281.4</v>
+      <c r="A238" s="3">
+        <v>44229</v>
+      </c>
+      <c r="B238" s="4">
+        <v>3561.37</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="3">
-        <v>43827</v>
-      </c>
-      <c r="B239" s="4">
-        <v>3294.05</v>
+      <c r="A239" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B239" s="2">
+        <v>3534.99</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B240" s="2">
-        <v>3277.14</v>
+      <c r="A240" s="3">
+        <v>44231</v>
+      </c>
+      <c r="B240" s="4">
+        <v>3522.57</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="3">
-        <v>43833</v>
-      </c>
-      <c r="B241" s="4">
-        <v>3258.84</v>
+      <c r="A241" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B241" s="2">
+        <v>3558.63</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B242" s="2">
-        <v>3262.05</v>
+      <c r="A242" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B242" s="4">
+        <v>3543.28</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>43838</v>
+        <v>44236</v>
       </c>
       <c r="B243" s="2">
-        <v>3264.26</v>
+        <v>3554.65</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>43839</v>
+        <v>44237</v>
       </c>
       <c r="B244" s="4">
-        <v>3254.42</v>
+        <v>3583.23</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>43840</v>
+        <v>44238</v>
       </c>
       <c r="B245" s="2">
-        <v>3253.89</v>
+        <v>3557.16</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>43841</v>
+        <v>44239</v>
       </c>
       <c r="B246" s="4">
-        <v>3272.62</v>
+        <v>3525.45</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>43844</v>
-      </c>
-      <c r="B247" s="2">
-        <v>3288.05</v>
+      <c r="A247" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B247" s="4">
+        <v>3515.65</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="3">
-        <v>43845</v>
-      </c>
-      <c r="B248" s="4">
-        <v>3278.83</v>
+      <c r="A248" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B248" s="2">
+        <v>3518.19</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>43846</v>
-      </c>
-      <c r="B249" s="2">
-        <v>3296.74</v>
+      <c r="A249" s="3">
+        <v>44245</v>
+      </c>
+      <c r="B249" s="4">
+        <v>3545.84</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="3">
-        <v>43847</v>
-      </c>
-      <c r="B250" s="4">
-        <v>3313.4</v>
+      <c r="A250" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B250" s="2">
+        <v>3537.86</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
-        <v>43848</v>
-      </c>
-      <c r="B251" s="2">
-        <v>3320.77</v>
+      <c r="A251" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B251" s="4">
+        <v>3555.4</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>43852</v>
+        <v>44250</v>
       </c>
       <c r="B252" s="2">
-        <v>3347.91</v>
+        <v>3602.41</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>43853</v>
+        <v>44251</v>
       </c>
       <c r="B253" s="4">
-        <v>3337.77</v>
+        <v>3590.37</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>43854</v>
+        <v>44252</v>
       </c>
       <c r="B254" s="2">
-        <v>3353.76</v>
+        <v>3578.29</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>43855</v>
+        <v>44253</v>
       </c>
       <c r="B255" s="4">
-        <v>3366.01</v>
+        <v>3588.23</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>43858</v>
+        <v>44256</v>
       </c>
       <c r="B256" s="2">
-        <v>3398.4</v>
+        <v>3624.39</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <v>43859</v>
+        <v>44257</v>
       </c>
       <c r="B257" s="4">
-        <v>3392.6</v>
+        <v>3622.36</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>43860</v>
+        <v>44258</v>
       </c>
       <c r="B258" s="2">
-        <v>3395.1</v>
+        <v>3646.61</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>43861</v>
+        <v>44259</v>
       </c>
       <c r="B259" s="4">
-        <v>3411.45</v>
+        <v>3676.94</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>43862</v>
+        <v>44260</v>
       </c>
       <c r="B260" s="2">
-        <v>3423.24</v>
+        <v>3647.99</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>43865</v>
+        <v>44263</v>
       </c>
       <c r="B261" s="4">
-        <v>3401.56</v>
+        <v>3640.2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>43866</v>
+        <v>44264</v>
       </c>
       <c r="B262" s="2">
-        <v>3368.87</v>
+        <v>3623.61</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <v>43867</v>
+        <v>44265</v>
       </c>
       <c r="B263" s="4">
-        <v>3355.44</v>
+        <v>3598.77</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43868</v>
+        <v>44266</v>
       </c>
       <c r="B264" s="2">
-        <v>3378.43</v>
+        <v>3561.91</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
-        <v>43869</v>
+        <v>44267</v>
       </c>
       <c r="B265" s="4">
-        <v>3408.35</v>
+        <v>3534.62</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>43872</v>
+        <v>44270</v>
       </c>
       <c r="B266" s="2">
-        <v>3440.96</v>
+        <v>3575.3</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
-        <v>43873</v>
+        <v>44271</v>
       </c>
       <c r="B267" s="4">
-        <v>3432.89</v>
+        <v>3575.63</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43874</v>
+        <v>44272</v>
       </c>
       <c r="B268" s="2">
-        <v>3394.8</v>
+        <v>3553.51</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
-        <v>43875</v>
+        <v>44273</v>
       </c>
       <c r="B269" s="4">
-        <v>3385.11</v>
+        <v>3578.02</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43876</v>
+        <v>44274</v>
       </c>
       <c r="B270" s="2">
-        <v>3378.29</v>
+        <v>3569.45</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>43880</v>
+        <v>44278</v>
       </c>
       <c r="B271" s="2">
-        <v>3410.24</v>
+        <v>3553.34</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <v>43881</v>
+        <v>44279</v>
       </c>
       <c r="B272" s="4">
-        <v>3400.98</v>
+        <v>3589.82</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>43882</v>
+        <v>44280</v>
       </c>
       <c r="B273" s="2">
-        <v>3403.5</v>
+        <v>3635.12</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <v>43883</v>
+        <v>44281</v>
       </c>
       <c r="B274" s="4">
-        <v>3398.05</v>
+        <v>3658.22</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43886</v>
+        <v>44284</v>
       </c>
       <c r="B275" s="2">
-        <v>3431.6</v>
+        <v>3665.41</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
-        <v>43887</v>
+        <v>44285</v>
       </c>
       <c r="B276" s="4">
-        <v>3425.22</v>
+        <v>3705.85</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>43888</v>
+        <v>44286</v>
       </c>
       <c r="B277" s="2">
-        <v>3441.88</v>
+        <v>3736.91</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
-        <v>43889</v>
+        <v>44291</v>
       </c>
       <c r="B278" s="4">
-        <v>3507.11</v>
+        <v>3678.62</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>43890</v>
+        <v>44292</v>
       </c>
       <c r="B279" s="2">
-        <v>3539.86</v>
+        <v>3645.79</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
-        <v>43893</v>
+        <v>44293</v>
       </c>
       <c r="B280" s="4">
-        <v>3512.17</v>
+        <v>3645.14</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>43894</v>
+        <v>44294</v>
       </c>
       <c r="B281" s="2">
-        <v>3455.56</v>
+        <v>3639.62</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
-        <v>43895</v>
+        <v>44295</v>
       </c>
       <c r="B282" s="4">
-        <v>3458.45</v>
+        <v>3634.07</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>43896</v>
+        <v>44298</v>
       </c>
       <c r="B283" s="2">
-        <v>3522.41</v>
+        <v>3650.23</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
-        <v>43897</v>
+        <v>44299</v>
       </c>
       <c r="B284" s="4">
-        <v>3584.58</v>
+        <v>3653.57</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>43900</v>
+        <v>44300</v>
       </c>
       <c r="B285" s="2">
-        <v>3803.6</v>
+        <v>3666.17</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
-        <v>43901</v>
+        <v>44301</v>
       </c>
       <c r="B286" s="4">
-        <v>3780.39</v>
+        <v>3665.49</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>43902</v>
+        <v>44302</v>
       </c>
       <c r="B287" s="2">
-        <v>3835.15</v>
+        <v>3620.4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
-        <v>43903</v>
+        <v>44305</v>
       </c>
       <c r="B288" s="4">
-        <v>4034.66</v>
+        <v>3595.57</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>43904</v>
+        <v>44306</v>
       </c>
       <c r="B289" s="2">
-        <v>3941.92</v>
+        <v>3606.42</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
-        <v>43907</v>
+        <v>44307</v>
       </c>
       <c r="B290" s="4">
-        <v>4099.93</v>
+        <v>3636.26</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>43908</v>
+        <v>44308</v>
       </c>
       <c r="B291" s="2">
-        <v>4044.55</v>
+        <v>3639.12</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
-        <v>43909</v>
+        <v>44309</v>
       </c>
       <c r="B292" s="4">
-        <v>4128.38</v>
+        <v>3630.81</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>43910</v>
+        <v>44312</v>
       </c>
       <c r="B293" s="2">
-        <v>4153.91</v>
+        <v>3640.07</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
-        <v>43911</v>
+        <v>44313</v>
       </c>
       <c r="B294" s="4">
-        <v>4079.96</v>
+        <v>3659.62</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="3">
-        <v>43915</v>
-      </c>
-      <c r="B295" s="4">
-        <v>4104.8999999999996</v>
+      <c r="A295" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B295" s="2">
+        <v>3717.46</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B296" s="2">
-        <v>4086.34</v>
+      <c r="A296" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B296" s="4">
+        <v>3699.74</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="3">
-        <v>43917</v>
-      </c>
-      <c r="B297" s="4">
-        <v>3995.83</v>
+      <c r="A297" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B297" s="2">
+        <v>3712.89</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>43918</v>
-      </c>
-      <c r="B298" s="2">
-        <v>4042.8</v>
+      <c r="A298" s="3">
+        <v>44319</v>
+      </c>
+      <c r="B298" s="4">
+        <v>3740.14</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="3">
-        <v>43921</v>
-      </c>
-      <c r="B299" s="4">
-        <v>4064.81</v>
+      <c r="A299" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B299" s="2">
+        <v>3816.65</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B300" s="2">
-        <v>4054.54</v>
+      <c r="A300" s="3">
+        <v>44321</v>
+      </c>
+      <c r="B300" s="4">
+        <v>3831.35</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="3">
-        <v>43923</v>
-      </c>
-      <c r="B301" s="4">
-        <v>4081.06</v>
+      <c r="A301" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B301" s="2">
+        <v>3846.28</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>43924</v>
-      </c>
-      <c r="B302" s="2">
-        <v>4065.5</v>
+      <c r="A302" s="3">
+        <v>44323</v>
+      </c>
+      <c r="B302" s="4">
+        <v>3800.33</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="3">
-        <v>43925</v>
-      </c>
-      <c r="B303" s="4">
-        <v>4008.78</v>
+      <c r="A303" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B303" s="2">
+        <v>3765.33</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>43928</v>
-      </c>
-      <c r="B304" s="2">
-        <v>3978.38</v>
+      <c r="A304" s="3">
+        <v>44327</v>
+      </c>
+      <c r="B304" s="4">
+        <v>3714.94</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="3">
-        <v>43929</v>
-      </c>
-      <c r="B305" s="4">
-        <v>3910.15</v>
+      <c r="A305" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B305" s="2">
+        <v>3703.2</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B306" s="2">
-        <v>3886.79</v>
+      <c r="A306" s="3">
+        <v>44329</v>
+      </c>
+      <c r="B306" s="4">
+        <v>3734.09</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="3">
-        <v>43935</v>
-      </c>
-      <c r="B307" s="4">
-        <v>3870.31</v>
+      <c r="A307" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B307" s="2">
+        <v>3728.09</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>43936</v>
+        <v>44334</v>
       </c>
       <c r="B308" s="2">
-        <v>3858.21</v>
+        <v>3682.84</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
-        <v>43937</v>
+        <v>44335</v>
       </c>
       <c r="B309" s="4">
-        <v>3920.83</v>
+        <v>3655.74</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>43938</v>
+        <v>44336</v>
       </c>
       <c r="B310" s="2">
-        <v>3942.92</v>
+        <v>3682.66</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
-        <v>43939</v>
+        <v>44337</v>
       </c>
       <c r="B311" s="4">
-        <v>3973.06</v>
+        <v>3721.57</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>43942</v>
+        <v>44340</v>
       </c>
       <c r="B312" s="2">
-        <v>3967.76</v>
+        <v>3738.19</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
-        <v>43943</v>
+        <v>44341</v>
       </c>
       <c r="B313" s="4">
-        <v>4045.01</v>
+        <v>3750.66</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>43944</v>
+        <v>44342</v>
       </c>
       <c r="B314" s="2">
-        <v>4037.95</v>
+        <v>3735.41</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
-        <v>43945</v>
+        <v>44343</v>
       </c>
       <c r="B315" s="4">
-        <v>4020.94</v>
+        <v>3747.48</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>43946</v>
+        <v>44344</v>
       </c>
       <c r="B316" s="2">
-        <v>4039.87</v>
+        <v>3729.02</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="3">
-        <v>43949</v>
-      </c>
-      <c r="B317" s="4">
-        <v>4039.83</v>
+      <c r="A317" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B317" s="2">
+        <v>3715.28</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
-        <v>43950</v>
-      </c>
-      <c r="B318" s="2">
-        <v>4046.04</v>
+      <c r="A318" s="3">
+        <v>44349</v>
+      </c>
+      <c r="B318" s="4">
+        <v>3671.38</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="3">
-        <v>43951</v>
-      </c>
-      <c r="B319" s="4">
-        <v>3983.29</v>
+      <c r="A319" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B319" s="2">
+        <v>3642.29</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B320" s="2">
-        <v>3932.72</v>
+      <c r="A320" s="3">
+        <v>44351</v>
+      </c>
+      <c r="B320" s="4">
+        <v>3657.41</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B321" s="2">
-        <v>3990.1</v>
+      <c r="A321" s="3">
+        <v>44355</v>
+      </c>
+      <c r="B321" s="4">
+        <v>3609.2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="3">
-        <v>43957</v>
-      </c>
-      <c r="B322" s="4">
-        <v>3926.07</v>
+      <c r="A322" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B322" s="2">
+        <v>3597.18</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B323" s="2">
-        <v>3961.66</v>
+      <c r="A323" s="3">
+        <v>44357</v>
+      </c>
+      <c r="B323" s="4">
+        <v>3588.41</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="3">
-        <v>43959</v>
-      </c>
-      <c r="B324" s="4">
-        <v>3924.54</v>
+      <c r="A324" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B324" s="2">
+        <v>3589.86</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>43960</v>
+        <v>44362</v>
       </c>
       <c r="B325" s="2">
-        <v>3882.27</v>
+        <v>3626.02</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
-        <v>43963</v>
+        <v>44363</v>
       </c>
       <c r="B326" s="4">
-        <v>3901.34</v>
+        <v>3693.35</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>43964</v>
+        <v>44364</v>
       </c>
       <c r="B327" s="2">
-        <v>3880.48</v>
+        <v>3690.56</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
-        <v>43965</v>
+        <v>44365</v>
       </c>
       <c r="B328" s="4">
-        <v>3901.3</v>
+        <v>3730.45</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>43966</v>
+        <v>44368</v>
       </c>
       <c r="B329" s="2">
-        <v>3947.79</v>
+        <v>3753.77</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
-        <v>43967</v>
+        <v>44369</v>
       </c>
       <c r="B330" s="4">
-        <v>3926.06</v>
+        <v>3758.08</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>43970</v>
+        <v>44370</v>
       </c>
       <c r="B331" s="2">
-        <v>3851.07</v>
+        <v>3784.45</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
-        <v>43971</v>
+        <v>44371</v>
       </c>
       <c r="B332" s="4">
-        <v>3824.3</v>
+        <v>3773.11</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>43972</v>
+        <v>44372</v>
       </c>
       <c r="B333" s="2">
-        <v>3804.12</v>
+        <v>3770.35</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
-        <v>43973</v>
+        <v>44375</v>
       </c>
       <c r="B334" s="4">
-        <v>3774.25</v>
+        <v>3739.03</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>43974</v>
+        <v>44376</v>
       </c>
       <c r="B335" s="2">
-        <v>3782.66</v>
+        <v>3713.17</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B336" s="2">
-        <v>3725.56</v>
+      <c r="A336" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B336" s="4">
+        <v>3756.67</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="3">
-        <v>43979</v>
-      </c>
-      <c r="B337" s="4">
-        <v>3743.79</v>
+      <c r="A337" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B337" s="2">
+        <v>3748.5</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
-        <v>43980</v>
-      </c>
-      <c r="B338" s="2">
-        <v>3723.42</v>
+      <c r="A338" s="3">
+        <v>44379</v>
+      </c>
+      <c r="B338" s="4">
+        <v>3775.53</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
-        <v>43981</v>
+        <v>44383</v>
       </c>
       <c r="B339" s="4">
-        <v>3718.82</v>
+        <v>3777.17</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>43984</v>
+        <v>44384</v>
       </c>
       <c r="B340" s="2">
-        <v>3716.35</v>
+        <v>3782.27</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
-        <v>43985</v>
+        <v>44385</v>
       </c>
       <c r="B341" s="4">
-        <v>3651.42</v>
+        <v>3815.22</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>43986</v>
+        <v>44386</v>
       </c>
       <c r="B342" s="2">
-        <v>3588.89</v>
+        <v>3850.46</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
-        <v>43987</v>
+        <v>44389</v>
       </c>
       <c r="B343" s="4">
-        <v>3597.47</v>
+        <v>3829.46</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>43988</v>
+        <v>44390</v>
       </c>
       <c r="B344" s="2">
-        <v>3565.06</v>
+        <v>3824.08</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
-        <v>43991</v>
+        <v>44391</v>
       </c>
       <c r="B345" s="4">
-        <v>3599</v>
+        <v>3826.85</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>43992</v>
+        <v>44392</v>
       </c>
       <c r="B346" s="2">
-        <v>3643.02</v>
+        <v>3796.07</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
-        <v>43993</v>
+        <v>44393</v>
       </c>
       <c r="B347" s="4">
-        <v>3674.81</v>
+        <v>3809.07</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>43994</v>
+        <v>44396</v>
       </c>
       <c r="B348" s="2">
-        <v>3746.46</v>
+        <v>3808.46</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="3">
-        <v>43995</v>
-      </c>
-      <c r="B349" s="4">
-        <v>3758.15</v>
+      <c r="A349" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B349" s="2">
+        <v>3842.97</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
-        <v>43999</v>
+        <v>44399</v>
       </c>
       <c r="B350" s="4">
-        <v>3741.88</v>
+        <v>3855.68</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>44000</v>
+        <v>44400</v>
       </c>
       <c r="B351" s="2">
-        <v>3749.03</v>
+        <v>3866.86</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
-        <v>44001</v>
+        <v>44403</v>
       </c>
       <c r="B352" s="4">
-        <v>3760.22</v>
+        <v>3874.44</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>44002</v>
+        <v>44404</v>
       </c>
       <c r="B353" s="2">
-        <v>3733.27</v>
+        <v>3904.17</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
-        <v>44006</v>
-      </c>
-      <c r="B354" s="2">
-        <v>3706.06</v>
+      <c r="A354" s="3">
+        <v>44405</v>
+      </c>
+      <c r="B354" s="4">
+        <v>3918.49</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="3">
-        <v>44007</v>
-      </c>
-      <c r="B355" s="4">
-        <v>3722.27</v>
+      <c r="A355" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B355" s="2">
+        <v>3902.18</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
-        <v>44008</v>
-      </c>
-      <c r="B356" s="2">
-        <v>3735.93</v>
+      <c r="A356" s="3">
+        <v>44407</v>
+      </c>
+      <c r="B356" s="4">
+        <v>3836.95</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="3">
-        <v>44009</v>
-      </c>
-      <c r="B357" s="4">
-        <v>3758.91</v>
+      <c r="A357" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B357" s="2">
+        <v>3867.88</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
-        <v>44013</v>
+        <v>44411</v>
       </c>
       <c r="B358" s="4">
-        <v>3756.28</v>
+        <v>3865.46</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>44014</v>
+        <v>44412</v>
       </c>
       <c r="B359" s="2">
-        <v>3723.67</v>
+        <v>3913.59</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
-        <v>44015</v>
+        <v>44413</v>
       </c>
       <c r="B360" s="4">
-        <v>3660.18</v>
+        <v>3911.36</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>44016</v>
+        <v>44414</v>
       </c>
       <c r="B361" s="2">
-        <v>3645.9</v>
+        <v>3910.81</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
-        <v>44019</v>
+        <v>44417</v>
       </c>
       <c r="B362" s="4">
-        <v>3633.32</v>
+        <v>3949.33</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>44020</v>
+        <v>44418</v>
       </c>
       <c r="B363" s="2">
-        <v>3631.54</v>
+        <v>3988.27</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
-        <v>44021</v>
+        <v>44419</v>
       </c>
       <c r="B364" s="4">
-        <v>3625.61</v>
+        <v>3979.8</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>44022</v>
+        <v>44420</v>
       </c>
       <c r="B365" s="2">
-        <v>3633.42</v>
+        <v>3950.43</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
-        <v>44023</v>
+        <v>44421</v>
       </c>
       <c r="B366" s="4">
-        <v>3615.75</v>
+        <v>3887.07</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
-        <v>44026</v>
-      </c>
-      <c r="B367" s="2">
-        <v>3617.22</v>
+      <c r="A367" s="3">
+        <v>44425</v>
+      </c>
+      <c r="B367" s="4">
+        <v>3830.25</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="3">
-        <v>44027</v>
-      </c>
-      <c r="B368" s="4">
-        <v>3638.22</v>
+      <c r="A368" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B368" s="2">
+        <v>3868.41</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
-        <v>44028</v>
-      </c>
-      <c r="B369" s="2">
-        <v>3611.61</v>
+      <c r="A369" s="3">
+        <v>44427</v>
+      </c>
+      <c r="B369" s="4">
+        <v>3861.33</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="3">
-        <v>44029</v>
-      </c>
-      <c r="B370" s="4">
-        <v>3627.86</v>
+      <c r="A370" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B370" s="2">
+        <v>3876.08</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
-        <v>44030</v>
-      </c>
-      <c r="B371" s="2">
-        <v>3651.93</v>
+      <c r="A371" s="3">
+        <v>44431</v>
+      </c>
+      <c r="B371" s="4">
+        <v>3874.95</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>44034</v>
+        <v>44432</v>
       </c>
       <c r="B372" s="2">
-        <v>3628.2</v>
+        <v>3867.73</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
-        <v>44035</v>
+        <v>44433</v>
       </c>
       <c r="B373" s="4">
-        <v>3627.28</v>
+        <v>3861.88</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44036</v>
+        <v>44434</v>
       </c>
       <c r="B374" s="2">
-        <v>3660.15</v>
+        <v>3865.04</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
-        <v>44037</v>
+        <v>44435</v>
       </c>
       <c r="B375" s="4">
-        <v>3690.8</v>
+        <v>3870.57</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>44040</v>
+        <v>44438</v>
       </c>
       <c r="B376" s="2">
-        <v>3679.17</v>
+        <v>3834.13</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
-        <v>44041</v>
+        <v>44439</v>
       </c>
       <c r="B377" s="4">
-        <v>3718.69</v>
+        <v>3806.87</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>44042</v>
+        <v>44440</v>
       </c>
       <c r="B378" s="2">
-        <v>3716.89</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
-        <v>44043</v>
+        <v>44441</v>
       </c>
       <c r="B379" s="4">
-        <v>3739.49</v>
+        <v>3753.3</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>44044</v>
+        <v>44442</v>
       </c>
       <c r="B380" s="2">
-        <v>3733.08</v>
+        <v>3780.85</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="3">
-        <v>44047</v>
-      </c>
-      <c r="B381" s="4">
-        <v>3768.39</v>
+      <c r="A381" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B381" s="2">
+        <v>3790.04</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
-        <v>44048</v>
-      </c>
-      <c r="B382" s="2">
-        <v>3792.98</v>
+      <c r="A382" s="3">
+        <v>44447</v>
+      </c>
+      <c r="B382" s="4">
+        <v>3812.76</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B383" s="4">
-        <v>3775.95</v>
+      <c r="A383" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B383" s="2">
+        <v>3816.14</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
-        <v>44050</v>
-      </c>
-      <c r="B384" s="2">
-        <v>3769.67</v>
+      <c r="A384" s="3">
+        <v>44449</v>
+      </c>
+      <c r="B384" s="4">
+        <v>3829.72</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>44054</v>
+        <v>44452</v>
       </c>
       <c r="B385" s="2">
-        <v>3770.22</v>
+        <v>3836.85</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
-        <v>44055</v>
+        <v>44453</v>
       </c>
       <c r="B386" s="4">
-        <v>3749.3</v>
+        <v>3835.27</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44056</v>
+        <v>44454</v>
       </c>
       <c r="B387" s="2">
-        <v>3755.61</v>
+        <v>3830.83</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
-        <v>44057</v>
+        <v>44455</v>
       </c>
       <c r="B388" s="4">
-        <v>3767.05</v>
+        <v>3825.36</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44058</v>
+        <v>44456</v>
       </c>
       <c r="B389" s="2">
-        <v>3783.15</v>
+        <v>3818.16</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
-        <v>44062</v>
-      </c>
-      <c r="B390" s="2">
-        <v>3784.15</v>
+      <c r="A390" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B390" s="4">
+        <v>3828.18</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="3">
-        <v>44063</v>
-      </c>
-      <c r="B391" s="4">
-        <v>3766.73</v>
+      <c r="A391" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B391" s="2">
+        <v>3851.22</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
-        <v>44064</v>
-      </c>
-      <c r="B392" s="2">
-        <v>3792.13</v>
+      <c r="A392" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B392" s="4">
+        <v>3843.77</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="3">
-        <v>44065</v>
-      </c>
-      <c r="B393" s="4">
-        <v>3827.27</v>
+      <c r="A393" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B393" s="2">
+        <v>3834.66</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
-        <v>44068</v>
-      </c>
-      <c r="B394" s="2">
-        <v>3843.69</v>
+      <c r="A394" s="3">
+        <v>44463</v>
+      </c>
+      <c r="B394" s="4">
+        <v>3835.67</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="3">
-        <v>44069</v>
-      </c>
-      <c r="B395" s="4">
-        <v>3867.32</v>
+      <c r="A395" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B395" s="2">
+        <v>3844.88</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
-        <v>44070</v>
-      </c>
-      <c r="B396" s="2">
-        <v>3846.64</v>
+      <c r="A396" s="3">
+        <v>44467</v>
+      </c>
+      <c r="B396" s="4">
+        <v>3837.91</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="3">
-        <v>44071</v>
-      </c>
-      <c r="B397" s="4">
-        <v>3820.17</v>
+      <c r="A397" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B397" s="2">
+        <v>3841.94</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
-        <v>44072</v>
-      </c>
-      <c r="B398" s="2">
-        <v>3760.38</v>
+      <c r="A398" s="3">
+        <v>44469</v>
+      </c>
+      <c r="B398" s="4">
+        <v>3834.68</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="3">
-        <v>44075</v>
-      </c>
-      <c r="B399" s="4">
-        <v>3745.41</v>
+      <c r="A399" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B399" s="2">
+        <v>3812.77</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
-        <v>44076</v>
-      </c>
-      <c r="B400" s="2">
-        <v>3683.28</v>
+      <c r="A400" s="3">
+        <v>44473</v>
+      </c>
+      <c r="B400" s="4">
+        <v>3781.35</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="3">
-        <v>44077</v>
-      </c>
-      <c r="B401" s="4">
-        <v>3653.7</v>
+      <c r="A401" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B401" s="2">
+        <v>3786.05</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
-        <v>44078</v>
-      </c>
-      <c r="B402" s="2">
-        <v>3653.23</v>
+      <c r="A402" s="3">
+        <v>44475</v>
+      </c>
+      <c r="B402" s="4">
+        <v>3796.3</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="3">
-        <v>44079</v>
-      </c>
-      <c r="B403" s="4">
-        <v>3702.62</v>
+      <c r="A403" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B403" s="2">
+        <v>3788.03</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
-        <v>44083</v>
+        <v>44477</v>
       </c>
       <c r="B404" s="4">
-        <v>3757.21</v>
+        <v>3772.44</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
-        <v>44084</v>
-      </c>
-      <c r="B405" s="2">
-        <v>3717.25</v>
+      <c r="A405" s="3">
+        <v>44481</v>
+      </c>
+      <c r="B405" s="4">
+        <v>3765.8</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="3">
-        <v>44085</v>
-      </c>
-      <c r="B406" s="4">
-        <v>3700.28</v>
+      <c r="A406" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B406" s="2">
+        <v>3738.48</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
-        <v>44086</v>
-      </c>
-      <c r="B407" s="2">
-        <v>3709</v>
+      <c r="A407" s="3">
+        <v>44483</v>
+      </c>
+      <c r="B407" s="4">
+        <v>3725.75</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="3">
-        <v>44089</v>
-      </c>
-      <c r="B408" s="4">
-        <v>3697</v>
+      <c r="A408" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B408" s="2">
+        <v>3755.29</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44090</v>
+        <v>44488</v>
       </c>
       <c r="B409" s="2">
-        <v>3683.49</v>
+        <v>3772.49</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
-        <v>44091</v>
+        <v>44489</v>
       </c>
       <c r="B410" s="4">
-        <v>3703.86</v>
+        <v>3766.94</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44092</v>
+        <v>44490</v>
       </c>
       <c r="B411" s="2">
-        <v>3714.65</v>
+        <v>3770.58</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
-        <v>44093</v>
+        <v>44491</v>
       </c>
       <c r="B412" s="4">
-        <v>3725.37</v>
+        <v>3783.3</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44096</v>
+        <v>44494</v>
       </c>
       <c r="B413" s="2">
-        <v>3790.54</v>
+        <v>3780.38</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
-        <v>44097</v>
+        <v>44495</v>
       </c>
       <c r="B414" s="4">
-        <v>3813.3</v>
+        <v>3769.98</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44098</v>
+        <v>44496</v>
       </c>
       <c r="B415" s="2">
-        <v>3863.6</v>
+        <v>3774.46</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
-        <v>44099</v>
+        <v>44497</v>
       </c>
       <c r="B416" s="4">
-        <v>3873.8</v>
+        <v>3761.21</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44100</v>
+        <v>44498</v>
       </c>
       <c r="B417" s="2">
-        <v>3867.81</v>
+        <v>3766.1</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="3">
-        <v>44103</v>
-      </c>
-      <c r="B418" s="4">
-        <v>3859.9</v>
+      <c r="A418" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B418" s="2">
+        <v>3784.44</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
-        <v>44104</v>
-      </c>
-      <c r="B419" s="2">
-        <v>3878.94</v>
+      <c r="A419" s="3">
+        <v>44503</v>
+      </c>
+      <c r="B419" s="4">
+        <v>3778.69</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="3">
-        <v>44105</v>
-      </c>
-      <c r="B420" s="4">
-        <v>3865.47</v>
+      <c r="A420" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B420" s="2">
+        <v>3837.84</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
-        <v>44106</v>
-      </c>
-      <c r="B421" s="2">
-        <v>3842.34</v>
+      <c r="A421" s="3">
+        <v>44505</v>
+      </c>
+      <c r="B421" s="4">
+        <v>3847.4</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="3">
-        <v>44107</v>
-      </c>
-      <c r="B422" s="4">
-        <v>3881.8</v>
+      <c r="A422" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B422" s="2">
+        <v>3881.76</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
-        <v>44110</v>
-      </c>
-      <c r="B423" s="2">
-        <v>3843.75</v>
+      <c r="A423" s="3">
+        <v>44509</v>
+      </c>
+      <c r="B423" s="4">
+        <v>3874.41</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="3">
-        <v>44111</v>
-      </c>
-      <c r="B424" s="4">
-        <v>3826.77</v>
+      <c r="A424" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B424" s="2">
+        <v>3876.86</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>44112</v>
+        <v>44512</v>
       </c>
       <c r="B425" s="2">
-        <v>3837.79</v>
+        <v>3875.38</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="3">
-        <v>44113</v>
-      </c>
-      <c r="B426" s="4">
-        <v>3839.73</v>
+      <c r="A426" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B426" s="2">
+        <v>3888.53</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
-        <v>44114</v>
-      </c>
-      <c r="B427" s="2">
-        <v>3824.25</v>
+      <c r="A427" s="3">
+        <v>44517</v>
+      </c>
+      <c r="B427" s="4">
+        <v>3898.84</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>44118</v>
+        <v>44518</v>
       </c>
       <c r="B428" s="2">
-        <v>3856.32</v>
+        <v>3907.95</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
-        <v>44119</v>
+        <v>44519</v>
       </c>
       <c r="B429" s="4">
-        <v>3843.59</v>
+        <v>3943.43</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>44120</v>
+        <v>44522</v>
       </c>
       <c r="B430" s="2">
-        <v>3854.47</v>
+        <v>3923.53</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
-        <v>44121</v>
+        <v>44523</v>
       </c>
       <c r="B431" s="4">
-        <v>3846.48</v>
+        <v>3913.26</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>44124</v>
+        <v>44524</v>
       </c>
       <c r="B432" s="2">
-        <v>3842.76</v>
+        <v>3944.37</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="3">
-        <v>44125</v>
-      </c>
-      <c r="B433" s="4">
-        <v>3830.79</v>
+      <c r="A433" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B433" s="2">
+        <v>3969.49</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
-        <v>44126</v>
-      </c>
-      <c r="B434" s="2">
-        <v>3784.51</v>
+      <c r="A434" s="3">
+        <v>44529</v>
+      </c>
+      <c r="B434" s="4">
+        <v>4008.13</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="3">
-        <v>44127</v>
-      </c>
-      <c r="B435" s="4">
-        <v>3776.73</v>
+      <c r="A435" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B435" s="2">
+        <v>4010.98</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
-        <v>44128</v>
-      </c>
-      <c r="B436" s="2">
-        <v>3782.66</v>
+      <c r="A436" s="3">
+        <v>44531</v>
+      </c>
+      <c r="B436" s="4">
+        <v>4004.54</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="3">
-        <v>44131</v>
-      </c>
-      <c r="B437" s="4">
-        <v>3812.82</v>
+      <c r="A437" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B437" s="2">
+        <v>3953.26</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="1">
-        <v>44132</v>
-      </c>
-      <c r="B438" s="2">
-        <v>3810.23</v>
+      <c r="A438" s="3">
+        <v>44533</v>
+      </c>
+      <c r="B438" s="4">
+        <v>3945.18</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="3">
-        <v>44133</v>
-      </c>
-      <c r="B439" s="4">
-        <v>3841.46</v>
+      <c r="A439" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B439" s="2">
+        <v>3948.33</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="1">
-        <v>44134</v>
-      </c>
-      <c r="B440" s="2">
-        <v>3849.53</v>
+      <c r="A440" s="3">
+        <v>44537</v>
+      </c>
+      <c r="B440" s="4">
+        <v>3944</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
-        <v>44135</v>
+        <v>44539</v>
       </c>
       <c r="B441" s="4">
-        <v>3858.56</v>
+        <v>3906.1</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="3">
-        <v>44139</v>
-      </c>
-      <c r="B442" s="4">
-        <v>3823.45</v>
+      <c r="A442" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B442" s="2">
+        <v>3899.87</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>44140</v>
-      </c>
-      <c r="B443" s="2">
-        <v>3807.13</v>
+      <c r="A443" s="3">
+        <v>44543</v>
+      </c>
+      <c r="B443" s="4">
+        <v>3887.71</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="3">
-        <v>44141</v>
-      </c>
-      <c r="B444" s="4">
-        <v>3763.82</v>
+      <c r="A444" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B444" s="2">
+        <v>3886.87</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
-        <v>44142</v>
-      </c>
-      <c r="B445" s="2">
-        <v>3738.19</v>
+      <c r="A445" s="3">
+        <v>44545</v>
+      </c>
+      <c r="B445" s="4">
+        <v>3936.41</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="3">
-        <v>44145</v>
-      </c>
-      <c r="B446" s="4">
-        <v>3646.15</v>
+      <c r="A446" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B446" s="2">
+        <v>3990.27</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
-        <v>44146</v>
-      </c>
-      <c r="B447" s="2">
-        <v>3650.5</v>
+      <c r="A447" s="3">
+        <v>44547</v>
+      </c>
+      <c r="B447" s="4">
+        <v>4002.97</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44148</v>
+        <v>44550</v>
       </c>
       <c r="B448" s="2">
-        <v>3646.22</v>
+        <v>3999.85</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
-        <v>44149</v>
+        <v>44551</v>
       </c>
       <c r="B449" s="4">
-        <v>3639.95</v>
+        <v>4002.12</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="3">
-        <v>44153</v>
-      </c>
-      <c r="B450" s="4">
-        <v>3635.19</v>
+      <c r="A450" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B450" s="2">
+        <v>3996.28</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
-        <v>44154</v>
-      </c>
-      <c r="B451" s="2">
-        <v>3647.73</v>
+      <c r="A451" s="3">
+        <v>44553</v>
+      </c>
+      <c r="B451" s="4">
+        <v>3997.71</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="3">
-        <v>44155</v>
-      </c>
-      <c r="B452" s="4">
-        <v>3647.1</v>
+      <c r="A452" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B452" s="2">
+        <v>3997.09</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
-        <v>44156</v>
-      </c>
-      <c r="B453" s="2">
-        <v>3649.9</v>
+      <c r="A453" s="3">
+        <v>44557</v>
+      </c>
+      <c r="B453" s="4">
+        <v>3994.15</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="3">
-        <v>44159</v>
-      </c>
-      <c r="B454" s="4">
-        <v>3632.92</v>
+      <c r="A454" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B454" s="2">
+        <v>3989.41</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
-        <v>44160</v>
-      </c>
-      <c r="B455" s="2">
-        <v>3643.24</v>
+      <c r="A455" s="3">
+        <v>44559</v>
+      </c>
+      <c r="B455" s="4">
+        <v>4004</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="3">
-        <v>44161</v>
-      </c>
-      <c r="B456" s="4">
-        <v>3620.39</v>
+      <c r="A456" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B456" s="2">
+        <v>4023.68</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="3">
-        <v>44163</v>
-      </c>
-      <c r="B457" s="4">
-        <v>3611.44</v>
+      <c r="A457" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B457" s="2">
+        <v>3981.16</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
-        <v>44166</v>
-      </c>
-      <c r="B458" s="2">
-        <v>3591.84</v>
+      <c r="A458" s="3">
+        <v>44565</v>
+      </c>
+      <c r="B458" s="4">
+        <v>4082.75</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="3">
-        <v>44167</v>
-      </c>
-      <c r="B459" s="4">
-        <v>3558.57</v>
+      <c r="A459" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B459" s="2">
+        <v>4084.11</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
-        <v>44168</v>
-      </c>
-      <c r="B460" s="2">
-        <v>3533.21</v>
+      <c r="A460" s="3">
+        <v>44567</v>
+      </c>
+      <c r="B460" s="4">
+        <v>4042.36</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="3">
-        <v>44169</v>
-      </c>
-      <c r="B461" s="4">
-        <v>3481.44</v>
+      <c r="A461" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B461" s="2">
+        <v>4039.31</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>44170</v>
+        <v>44572</v>
       </c>
       <c r="B462" s="2">
-        <v>3467.49</v>
+        <v>4043.46</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
-        <v>44173</v>
+        <v>44573</v>
       </c>
       <c r="B463" s="4">
-        <v>3487.65</v>
+        <v>4011.65</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="3">
-        <v>44175</v>
-      </c>
-      <c r="B464" s="4">
-        <v>3465.76</v>
+      <c r="A464" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B464" s="2">
+        <v>3970.08</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
-        <v>44176</v>
-      </c>
-      <c r="B465" s="2">
-        <v>3448.89</v>
+      <c r="A465" s="3">
+        <v>44575</v>
+      </c>
+      <c r="B465" s="4">
+        <v>3950.4</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
-        <v>44177</v>
+        <v>44579</v>
       </c>
       <c r="B466" s="4">
-        <v>3433.45</v>
+        <v>3993.65</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>44180</v>
+        <v>44580</v>
       </c>
       <c r="B467" s="2">
-        <v>3426.97</v>
+        <v>4033.37</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
-        <v>44181</v>
+        <v>44581</v>
       </c>
       <c r="B468" s="4">
-        <v>3422.44</v>
+        <v>4003.95</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44182</v>
+        <v>44582</v>
       </c>
       <c r="B469" s="2">
-        <v>3416.21</v>
+        <v>3980.8</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
-        <v>44183</v>
+        <v>44585</v>
       </c>
       <c r="B470" s="4">
-        <v>3410.82</v>
+        <v>3964.3</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44184</v>
+        <v>44586</v>
       </c>
       <c r="B471" s="2">
-        <v>3420.26</v>
+        <v>3977.51</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
-        <v>44187</v>
+        <v>44587</v>
       </c>
       <c r="B472" s="4">
-        <v>3442.41</v>
+        <v>3987.32</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44188</v>
+        <v>44588</v>
       </c>
       <c r="B473" s="2">
-        <v>3444.9</v>
+        <v>3947.83</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
-        <v>44189</v>
+        <v>44589</v>
       </c>
       <c r="B474" s="4">
-        <v>3482.51</v>
+        <v>3944.04</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>44190</v>
+        <v>44592</v>
       </c>
       <c r="B475" s="2">
-        <v>3493.77</v>
+        <v>3982.6</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
-        <v>44194</v>
-      </c>
-      <c r="B476" s="2">
-        <v>3495.39</v>
+      <c r="A476" s="3">
+        <v>44593</v>
+      </c>
+      <c r="B476" s="4">
+        <v>3942.73</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" s="3">
-        <v>44195</v>
-      </c>
-      <c r="B477" s="4">
-        <v>3482.1</v>
+      <c r="A477" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B477" s="2">
+        <v>3923.61</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B478" s="2">
-        <v>3432.5</v>
+      <c r="A478" s="3">
+        <v>44595</v>
+      </c>
+      <c r="B478" s="4">
+        <v>3928.05</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="3">
-        <v>44201</v>
-      </c>
-      <c r="B479" s="4">
-        <v>3420.78</v>
+      <c r="A479" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B479" s="2">
+        <v>3951.96</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="1">
-        <v>44202</v>
-      </c>
-      <c r="B480" s="2">
-        <v>3450.74</v>
+      <c r="A480" s="3">
+        <v>44599</v>
+      </c>
+      <c r="B480" s="4">
+        <v>3962.68</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="3">
-        <v>44203</v>
-      </c>
-      <c r="B481" s="4">
-        <v>3428.04</v>
+      <c r="A481" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B481" s="2">
+        <v>3963.84</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="1">
-        <v>44204</v>
-      </c>
-      <c r="B482" s="2">
-        <v>3459.39</v>
+      <c r="A482" s="3">
+        <v>44601</v>
+      </c>
+      <c r="B482" s="4">
+        <v>3965.41</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="3">
-        <v>44205</v>
-      </c>
-      <c r="B483" s="4">
-        <v>3478.11</v>
+      <c r="A483" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B483" s="2">
+        <v>3939.31</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
-        <v>44209</v>
+        <v>44603</v>
       </c>
       <c r="B484" s="4">
-        <v>3487.65</v>
+        <v>3917.75</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>44210</v>
+        <v>44606</v>
       </c>
       <c r="B485" s="2">
-        <v>3478.36</v>
+        <v>3917.52</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
-        <v>44211</v>
+        <v>44607</v>
       </c>
       <c r="B486" s="4">
-        <v>3469.76</v>
+        <v>3938.97</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>44212</v>
+        <v>44608</v>
       </c>
       <c r="B487" s="2">
-        <v>3466.8</v>
+        <v>3946.88</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
-        <v>44216</v>
-      </c>
-      <c r="B488" s="2">
-        <v>3482.03</v>
+      <c r="A488" s="3">
+        <v>44609</v>
+      </c>
+      <c r="B488" s="4">
+        <v>3963.72</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="3">
-        <v>44217</v>
-      </c>
-      <c r="B489" s="4">
-        <v>3476.19</v>
+      <c r="A489" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B489" s="2">
+        <v>3953.26</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>44218</v>
+        <v>44614</v>
       </c>
       <c r="B490" s="2">
-        <v>3477.48</v>
+        <v>3927.25</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="3">
-        <v>44219</v>
+        <v>44615</v>
       </c>
       <c r="B491" s="4">
-        <v>3525.25</v>
+        <v>3932.4</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>44222</v>
+        <v>44616</v>
       </c>
       <c r="B492" s="2">
-        <v>3582.41</v>
+        <v>3913.79</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
-        <v>44223</v>
+        <v>44617</v>
       </c>
       <c r="B493" s="4">
-        <v>3591.48</v>
+        <v>3940.2</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>44224</v>
+        <v>44620</v>
       </c>
       <c r="B494" s="2">
-        <v>3636.91</v>
+        <v>3910.64</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
-        <v>44225</v>
+        <v>44621</v>
       </c>
       <c r="B495" s="4">
-        <v>3585.44</v>
+        <v>3910.28</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>44226</v>
+        <v>44622</v>
       </c>
       <c r="B496" s="2">
-        <v>3559.46</v>
+        <v>3901.62</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
-        <v>44229</v>
+        <v>44623</v>
       </c>
       <c r="B497" s="4">
-        <v>3561.37</v>
+        <v>3862.95</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>44230</v>
+        <v>44624</v>
       </c>
       <c r="B498" s="2">
-        <v>3534.99</v>
+        <v>3771.77</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="3">
-        <v>44231</v>
+        <v>44627</v>
       </c>
       <c r="B499" s="4">
-        <v>3522.57</v>
+        <v>3806.11</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>44232</v>
+        <v>44628</v>
       </c>
       <c r="B500" s="2">
-        <v>3558.63</v>
+        <v>3813.41</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
-        <v>44233</v>
+        <v>44629</v>
       </c>
       <c r="B501" s="4">
-        <v>3543.28</v>
+        <v>3787.18</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>44236</v>
+        <v>44630</v>
       </c>
       <c r="B502" s="2">
-        <v>3554.65</v>
+        <v>3746.43</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
-        <v>44237</v>
+        <v>44631</v>
       </c>
       <c r="B503" s="4">
-        <v>3583.23</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>44238</v>
+        <v>44634</v>
       </c>
       <c r="B504" s="2">
-        <v>3557.16</v>
+        <v>3827.64</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
-        <v>44239</v>
+        <v>44635</v>
       </c>
       <c r="B505" s="4">
-        <v>3525.45</v>
+        <v>3800.85</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>44240</v>
+        <v>44636</v>
       </c>
       <c r="B506" s="2">
-        <v>3515.65</v>
+        <v>3836.56</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507" s="1">
-        <v>44244</v>
-      </c>
-      <c r="B507" s="2">
-        <v>3518.19</v>
+      <c r="A507" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B507" s="4">
+        <v>3826.89</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508" s="3">
-        <v>44245</v>
-      </c>
-      <c r="B508" s="4">
-        <v>3545.84</v>
+      <c r="A508" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B508" s="2">
+        <v>3816.43</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>44246</v>
+        <v>44642</v>
       </c>
       <c r="B509" s="2">
-        <v>3537.86</v>
+        <v>3820.67</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
-        <v>44247</v>
+        <v>44643</v>
       </c>
       <c r="B510" s="4">
-        <v>3555.4</v>
+        <v>3765.67</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>44250</v>
+        <v>44644</v>
       </c>
       <c r="B511" s="2">
-        <v>3602.41</v>
+        <v>3756.64</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="3">
-        <v>44251</v>
+        <v>44645</v>
       </c>
       <c r="B512" s="4">
-        <v>3590.37</v>
+        <v>3798.9</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>44252</v>
+        <v>44648</v>
       </c>
       <c r="B513" s="2">
-        <v>3578.29</v>
+        <v>3785.66</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
-        <v>44253</v>
+        <v>44649</v>
       </c>
       <c r="B514" s="4">
-        <v>3588.23</v>
+        <v>3785.7</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>44254</v>
+        <v>44650</v>
       </c>
       <c r="B515" s="2">
-        <v>3624.39</v>
+        <v>3765.96</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="3">
-        <v>44257</v>
+        <v>44651</v>
       </c>
       <c r="B516" s="4">
-        <v>3622.36</v>
+        <v>3748.15</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>44258</v>
+        <v>44652</v>
       </c>
       <c r="B517" s="2">
-        <v>3646.61</v>
+        <v>3756.03</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="3">
-        <v>44259</v>
+        <v>44655</v>
       </c>
       <c r="B518" s="4">
-        <v>3676.94</v>
+        <v>3774.79</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>44260</v>
+        <v>44656</v>
       </c>
       <c r="B519" s="2">
-        <v>3647.99</v>
+        <v>3706.95</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="3">
-        <v>44261</v>
+        <v>44657</v>
       </c>
       <c r="B520" s="4">
-        <v>3640.2</v>
+        <v>3723.79</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>44264</v>
+        <v>44658</v>
       </c>
       <c r="B521" s="2">
-        <v>3623.61</v>
+        <v>3746.51</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="3">
-        <v>44265</v>
+        <v>44659</v>
       </c>
       <c r="B522" s="4">
-        <v>3598.77</v>
+        <v>3771.83</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>44266</v>
+        <v>44662</v>
       </c>
       <c r="B523" s="2">
-        <v>3561.91</v>
+        <v>3777.41</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="3">
-        <v>44267</v>
+        <v>44663</v>
       </c>
       <c r="B524" s="4">
-        <v>3534.62</v>
+        <v>3744.16</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>44268</v>
+        <v>44664</v>
       </c>
       <c r="B525" s="2">
-        <v>3575.3</v>
+        <v>3736.7</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="3">
-        <v>44271</v>
+        <v>44669</v>
       </c>
       <c r="B526" s="4">
-        <v>3575.63</v>
+        <v>3737.32</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>44272</v>
+        <v>44670</v>
       </c>
       <c r="B527" s="2">
-        <v>3553.51</v>
+        <v>3731.31</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="3">
-        <v>44273</v>
+        <v>44671</v>
       </c>
       <c r="B528" s="4">
-        <v>3578.02</v>
+        <v>3755.85</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>44274</v>
+        <v>44672</v>
       </c>
       <c r="B529" s="2">
-        <v>3569.45</v>
+        <v>3758.65</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="3">
-        <v>44275</v>
+        <v>44673</v>
       </c>
       <c r="B530" s="4">
-        <v>3553.34</v>
+        <v>3759.54</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="3">
-        <v>44279</v>
-      </c>
-      <c r="B531" s="4">
-        <v>3589.82</v>
+      <c r="A531" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B531" s="2">
+        <v>3819.07</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="1">
-        <v>44280</v>
-      </c>
-      <c r="B532" s="2">
-        <v>3635.12</v>
+      <c r="A532" s="3">
+        <v>44677</v>
+      </c>
+      <c r="B532" s="4">
+        <v>3931.74</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="3">
-        <v>44281</v>
-      </c>
-      <c r="B533" s="4">
-        <v>3658.22</v>
+      <c r="A533" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B533" s="2">
+        <v>3947.63</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="1">
-        <v>44282</v>
-      </c>
-      <c r="B534" s="2">
-        <v>3665.41</v>
+      <c r="A534" s="3">
+        <v>44679</v>
+      </c>
+      <c r="B534" s="4">
+        <v>3967.32</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
